--- a/results/I2_N10_T100_C325_0_P6_res.xlsx
+++ b/results/I2_N10_T100_C325_0_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>279.4250064553669</v>
+        <v>396.5734176329555</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0150001049041748</v>
+        <v>0.01800012588500977</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48.12500645536537</v>
+        <v>47.83341763294923</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.067333125130107</v>
+        <v>3.20199937539032</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.067333125130107</v>
+        <v>3.20199937539032</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.84000000000151</v>
+        <v>197.7000000000063</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>214.46</v>
+        <v>151.04</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,9 +587,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -667,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +700,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -689,7 +711,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -700,7 +722,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -722,7 +744,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -744,7 +766,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -755,7 +777,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -766,7 +788,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -824,7 +846,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -835,7 +857,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -868,7 +890,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -995,7 +1017,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>35.46173964959884</v>
+        <v>39.3596524473688</v>
       </c>
     </row>
     <row r="4">
@@ -1003,7 +1025,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>2.580484450641009</v>
       </c>
     </row>
     <row r="5">
@@ -1011,7 +1033,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -1019,7 +1041,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>35.00919155153804</v>
       </c>
     </row>
     <row r="7">
@@ -1035,7 +1057,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15.34885527085025</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -1043,7 +1065,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>35.47120644830736</v>
+        <v>35.17863316307213</v>
       </c>
     </row>
     <row r="10">
@@ -1051,7 +1073,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>30</v>
+        <v>37.32144153802307</v>
       </c>
     </row>
     <row r="11">
@@ -1067,7 +1089,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>33.35343867541883</v>
+        <v>36.74896288328807</v>
       </c>
     </row>
     <row r="13">
@@ -1075,7 +1097,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>37.45822856041903</v>
+        <v>44.69631807301934</v>
       </c>
     </row>
     <row r="14">
@@ -1083,7 +1105,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>40.79840527524938</v>
+        <v>42.53774290968479</v>
       </c>
     </row>
     <row r="15">
@@ -1091,7 +1113,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>40.4587509343245</v>
+        <v>40.16617764908928</v>
       </c>
     </row>
   </sheetData>
@@ -1105,7 +1127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1140,12 +1162,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1248,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>322</v>
+        <v>340.5450000000006</v>
       </c>
     </row>
     <row r="8">
@@ -1259,7 +1309,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>333.4200000000008</v>
+        <v>357.3100000000006</v>
       </c>
     </row>
     <row r="9">
@@ -1270,7 +1320,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>290.3099999999995</v>
+        <v>335.9850000000006</v>
       </c>
     </row>
     <row r="10">
@@ -1281,7 +1331,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>317.155</v>
+        <v>357.9700000000007</v>
       </c>
     </row>
     <row r="11">
@@ -1292,7 +1342,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>300.5049999999995</v>
+        <v>332.0400000000006</v>
       </c>
     </row>
     <row r="12">
@@ -1303,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>67.77500000000072</v>
+        <v>65.27000000000072</v>
       </c>
     </row>
     <row r="13">
@@ -1314,7 +1364,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>73.77000000000072</v>
+        <v>68.8</v>
       </c>
     </row>
     <row r="14">
@@ -1325,7 +1375,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>74.03500000000074</v>
+        <v>67.19500000000073</v>
       </c>
     </row>
     <row r="15">
@@ -1336,7 +1386,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>73.04500000000073</v>
+        <v>69.32500000000073</v>
       </c>
     </row>
     <row r="16">
@@ -1347,7 +1397,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>72.66500000000073</v>
+        <v>68.54000000000073</v>
       </c>
     </row>
     <row r="17">
@@ -1358,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>40.35</v>
+        <v>46.91999999999942</v>
       </c>
     </row>
     <row r="18">
@@ -1369,7 +1419,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>30.90499999999942</v>
+        <v>36.10499999999942</v>
       </c>
     </row>
     <row r="19">
@@ -1380,7 +1430,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>27.59499999999942</v>
+        <v>34.91499999999942</v>
       </c>
     </row>
     <row r="20">
@@ -1391,7 +1441,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>31.97499999999942</v>
+        <v>37.48999999999942</v>
       </c>
     </row>
     <row r="21">
@@ -1402,7 +1452,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>33.99499999999941</v>
+        <v>39.43499999999941</v>
       </c>
     </row>
     <row r="22">
@@ -1413,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>140.4050000000002</v>
+        <v>119.55</v>
       </c>
     </row>
     <row r="23">
@@ -1424,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>153.8250000000002</v>
+        <v>116.1599999999989</v>
       </c>
     </row>
     <row r="24">
@@ -1435,7 +1485,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>156.3550000000002</v>
+        <v>117.2349999999989</v>
       </c>
     </row>
     <row r="25">
@@ -1446,7 +1496,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>157</v>
+        <v>121.4449999999989</v>
       </c>
     </row>
     <row r="26">
@@ -1457,7 +1507,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>153.4800000000002</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="27">
@@ -1523,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>144.1300000000006</v>
+        <v>172.65</v>
       </c>
     </row>
     <row r="33">
@@ -1534,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>136.6700000000006</v>
+        <v>181.0400000000006</v>
       </c>
     </row>
     <row r="34">
@@ -1545,7 +1595,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>117.2199999999993</v>
+        <v>160.9850000000006</v>
       </c>
     </row>
     <row r="35">
@@ -1556,7 +1606,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>134.2299999999998</v>
+        <v>178.1600000000006</v>
       </c>
     </row>
     <row r="36">
@@ -1567,7 +1617,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>125.7699999999992</v>
+        <v>163.3200000000005</v>
       </c>
     </row>
     <row r="37">
@@ -1578,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>223.4800000000011</v>
+        <v>238.4400000000016</v>
       </c>
     </row>
     <row r="38">
@@ -1589,7 +1639,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>238.5450000000011</v>
+        <v>249.0050000000016</v>
       </c>
     </row>
     <row r="39">
@@ -1600,7 +1650,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>234.3300000000011</v>
+        <v>230.1</v>
       </c>
     </row>
     <row r="40">
@@ -1611,7 +1661,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>246.7700000000011</v>
+        <v>253.1450000000016</v>
       </c>
     </row>
     <row r="41">
@@ -1622,7 +1672,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>235.3350000000011</v>
+        <v>239.4750000000016</v>
       </c>
     </row>
     <row r="42">
@@ -1633,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>212.055</v>
+        <v>187.4749999999983</v>
       </c>
     </row>
     <row r="43">
@@ -1644,7 +1694,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>215.83</v>
+        <v>195.3199999999983</v>
       </c>
     </row>
     <row r="44">
@@ -1655,7 +1705,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>177.0399999999987</v>
+        <v>177.0549999999983</v>
       </c>
     </row>
     <row r="45">
@@ -1666,7 +1716,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>198</v>
+        <v>185.2149999999983</v>
       </c>
     </row>
     <row r="46">
@@ -1677,7 +1727,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>184.7</v>
+        <v>179.1799999999984</v>
       </c>
     </row>
     <row r="47">
@@ -1699,7 +1749,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>164.2850000000007</v>
+        <v>164.2850000000008</v>
       </c>
     </row>
     <row r="49">
@@ -1710,7 +1760,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>152.1250000000008</v>
+        <v>152.1250000000007</v>
       </c>
     </row>
     <row r="50">
@@ -1743,7 +1793,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>213.315</v>
+        <v>230.6</v>
       </c>
     </row>
     <row r="53">
@@ -1754,7 +1804,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>222.965</v>
+        <v>239.7199999999999</v>
       </c>
     </row>
     <row r="54">
@@ -1765,7 +1815,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>213.855</v>
+        <v>222.7149999999998</v>
       </c>
     </row>
     <row r="55">
@@ -1776,7 +1826,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>224.03</v>
+        <v>238.8149999999999</v>
       </c>
     </row>
     <row r="56">
@@ -1787,7 +1837,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>210.535</v>
+        <v>216.2349999999998</v>
       </c>
     </row>
     <row r="57">
@@ -1798,7 +1848,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>213.315</v>
+        <v>340.5450000000006</v>
       </c>
     </row>
     <row r="58">
@@ -1809,7 +1859,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>222.965</v>
+        <v>357.3100000000006</v>
       </c>
     </row>
     <row r="59">
@@ -1820,7 +1870,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>213.855</v>
+        <v>335.9850000000006</v>
       </c>
     </row>
     <row r="60">
@@ -1831,7 +1881,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>224.03</v>
+        <v>357.9700000000007</v>
       </c>
     </row>
     <row r="61">
@@ -1842,7 +1892,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>210.535</v>
+        <v>332.0400000000006</v>
       </c>
     </row>
     <row r="62">
@@ -1853,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>322</v>
+        <v>187.4749999999983</v>
       </c>
     </row>
     <row r="63">
@@ -1864,7 +1914,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>333.4200000000008</v>
+        <v>195.3199999999983</v>
       </c>
     </row>
     <row r="64">
@@ -1875,7 +1925,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>290.3099999999995</v>
+        <v>177.0549999999983</v>
       </c>
     </row>
     <row r="65">
@@ -1886,7 +1936,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>317.155</v>
+        <v>185.2149999999983</v>
       </c>
     </row>
     <row r="66">
@@ -1897,7 +1947,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>300.5049999999995</v>
+        <v>179.1799999999984</v>
       </c>
     </row>
     <row r="67">
@@ -1908,7 +1958,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>223.4800000000011</v>
+        <v>238.4400000000016</v>
       </c>
     </row>
     <row r="68">
@@ -1919,7 +1969,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>238.5450000000011</v>
+        <v>249.0050000000016</v>
       </c>
     </row>
     <row r="69">
@@ -1930,7 +1980,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>234.3300000000011</v>
+        <v>230.1</v>
       </c>
     </row>
     <row r="70">
@@ -1941,7 +1991,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>246.7700000000011</v>
+        <v>253.1450000000016</v>
       </c>
     </row>
     <row r="71">
@@ -1952,7 +2002,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>235.3350000000011</v>
+        <v>239.4750000000016</v>
       </c>
     </row>
   </sheetData>
@@ -1999,7 +2049,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>15.54500000000063</v>
       </c>
     </row>
     <row r="3">
@@ -2010,7 +2060,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>32.31000000000066</v>
       </c>
     </row>
     <row r="4">
@@ -2021,7 +2071,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>10.98500000000065</v>
       </c>
     </row>
     <row r="5">
@@ -2032,7 +2082,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>32.97000000000064</v>
       </c>
     </row>
     <row r="6">
@@ -2043,7 +2093,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7.040000000000561</v>
       </c>
     </row>
     <row r="7">
@@ -2065,7 +2115,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>8.420000000000755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2255,7 +2305,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>13.7</v>
+        <v>16.205</v>
       </c>
     </row>
     <row r="8">
@@ -2266,7 +2316,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.91</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="9">
@@ -2277,7 +2327,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>10.68</v>
+        <v>17.52</v>
       </c>
     </row>
     <row r="10">
@@ -2288,7 +2338,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>7.39</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="11">
@@ -2299,7 +2349,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>14.68</v>
+        <v>18.805</v>
       </c>
     </row>
     <row r="12">
@@ -2310,7 +2360,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>6.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2321,7 +2371,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2332,7 +2382,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>7.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2343,7 +2393,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>5.515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2354,7 +2404,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2475,7 +2525,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2486,7 +2536,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>6.475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2497,7 +2547,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>4.165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2508,7 +2558,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>6.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2519,7 +2569,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>3.005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -2753,7 +2803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2783,9 +2833,53 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>

--- a/results/I2_N10_T100_C325_0_P6_res.xlsx
+++ b/results/I2_N10_T100_C325_0_P6_res.xlsx
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01800012588500977</v>
+        <v>0.01900005340576172</v>
       </c>
     </row>
     <row r="5">
